--- a/data/trans_dic/P2C_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2198445153331575</v>
+        <v>0.2206153356196549</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4810211199850374</v>
+        <v>0.4797332257047857</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3334740062742902</v>
+        <v>0.3322921867235933</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1634510046201232</v>
+        <v>0.1614433213515486</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.321663654635802</v>
+        <v>0.3221491650449676</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5319455686542073</v>
+        <v>0.5289285337332117</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4162328670558623</v>
+        <v>0.411767914531413</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2219016008430552</v>
+        <v>0.2259082266569812</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2911738630497949</v>
+        <v>0.2922147052117621</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5152647409554379</v>
+        <v>0.5146080089344257</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3872329600159248</v>
+        <v>0.3840403810189285</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2048170961313087</v>
+        <v>0.208277440092325</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2933865308595437</v>
+        <v>0.2911873454593888</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5486512267885418</v>
+        <v>0.5445382292904878</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3911688831433061</v>
+        <v>0.3900125289583194</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2449036540677925</v>
+        <v>0.2426775652820952</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3840228178599497</v>
+        <v>0.3871472371601562</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5945198522144493</v>
+        <v>0.5918210436115073</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4704649083901223</v>
+        <v>0.4710959964964295</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2856868734330748</v>
+        <v>0.2875519747520755</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3392403473839385</v>
+        <v>0.3414132528902756</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5588271143936906</v>
+        <v>0.5590466745537485</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4272889405477192</v>
+        <v>0.4249984644577682</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2554503288997718</v>
+        <v>0.2581718862537552</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2942971072639834</v>
+        <v>0.2927721491801855</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4420188332829304</v>
+        <v>0.4371031039597939</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2759389470774657</v>
+        <v>0.2773747953856763</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1599196572359549</v>
+        <v>0.1612262702830753</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3362176371514873</v>
+        <v>0.3367295838093413</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4922839860270205</v>
+        <v>0.49149113878215</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3549767537368453</v>
+        <v>0.3539970288684146</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2113744906991988</v>
+        <v>0.212336121259976</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3232731096031438</v>
+        <v>0.3230520068089232</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4749199424968873</v>
+        <v>0.4747718307768269</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3279852837254487</v>
+        <v>0.3256320216866099</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1954357405758007</v>
+        <v>0.1944968064139626</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3516894005655806</v>
+        <v>0.3485362075105726</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5067999025912758</v>
+        <v>0.5040183476678981</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3383535716074154</v>
+        <v>0.3417691462598355</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2140624065201246</v>
+        <v>0.2131345385235766</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3966032633961318</v>
+        <v>0.3938801764151689</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5549923102674666</v>
+        <v>0.5534467638455586</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4185876617758554</v>
+        <v>0.4167914850410265</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2547019435473305</v>
+        <v>0.256079641115835</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3647005802418344</v>
+        <v>0.3634823368873081</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5205557657361395</v>
+        <v>0.5210054831260769</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3718424968016474</v>
+        <v>0.3710033423538712</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2307574104176324</v>
+        <v>0.2279035567599384</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2786630645793605</v>
+        <v>0.2794378900982413</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3414803116589137</v>
+        <v>0.3398882006771516</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2659768278522763</v>
+        <v>0.2672606757395082</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.103877448639974</v>
+        <v>0.1016487219641341</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3127097615013832</v>
+        <v>0.3111616098597927</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4523947429805922</v>
+        <v>0.450417268486078</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3003930890171213</v>
+        <v>0.2999828266069635</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1488062331250611</v>
+        <v>0.1493834615341504</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3018788714643915</v>
+        <v>0.3018562609159172</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4027616338019628</v>
+        <v>0.4037474444693985</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2909635043860195</v>
+        <v>0.29123395825282</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1323540308373549</v>
+        <v>0.1335618974241062</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3337585178004346</v>
+        <v>0.3337501596757471</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4081298816708945</v>
+        <v>0.4119401708640705</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3313603718840244</v>
+        <v>0.329231120107024</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1457908082559805</v>
+        <v>0.1476401883664113</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3737502886892012</v>
+        <v>0.3701970049152847</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5184219790624749</v>
+        <v>0.517632793400004</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3698671362488142</v>
+        <v>0.371100171972212</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1915294599988491</v>
+        <v>0.1911389110414575</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3442070609239762</v>
+        <v>0.342176111114467</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4517991129415986</v>
+        <v>0.4514040514208768</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3383078777796406</v>
+        <v>0.340141193669302</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1632553120668381</v>
+        <v>0.1639709050331819</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2016670492350216</v>
+        <v>0.1994140492428823</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3602055522914827</v>
+        <v>0.3573432794889205</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2113604121797971</v>
+        <v>0.2111056322510366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05296549214180003</v>
+        <v>0.05207046104779213</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.250455337922706</v>
+        <v>0.247831080133948</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4085390452124666</v>
+        <v>0.4053539802819368</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2981805331360187</v>
+        <v>0.2987010280610813</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0631271453803879</v>
+        <v>0.06415212790840616</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2374109475170536</v>
+        <v>0.2335564293960674</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3945492821302731</v>
+        <v>0.3926014502182347</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2636477212035446</v>
+        <v>0.2655173717428462</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06037847620807296</v>
+        <v>0.06216285285564892</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2807683979344988</v>
+        <v>0.2824469328257889</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4557982048843709</v>
+        <v>0.4532451450828007</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2889289912525585</v>
+        <v>0.2894443202773818</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08681251754034275</v>
+        <v>0.08611727585271538</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3457207778745518</v>
+        <v>0.3476198616197217</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5031750581237544</v>
+        <v>0.5081220964464895</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3826545758626885</v>
+        <v>0.3845273221446682</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09368213541627632</v>
+        <v>0.09571275833058303</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2958923868624665</v>
+        <v>0.2969554376686632</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.462052048883108</v>
+        <v>0.4625561537152059</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3224989239996425</v>
+        <v>0.3247132121076975</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08543436649697704</v>
+        <v>0.08660531153236628</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3885138256261451</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1807838995551614</v>
+        <v>0.1807838995551615</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.320313087029591</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2765010915816265</v>
+        <v>0.2781275205538654</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4320712842246847</v>
+        <v>0.4333699793152101</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2983932841471912</v>
+        <v>0.2975219539148519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1233923377723785</v>
+        <v>0.1239695680032966</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3311680855397074</v>
+        <v>0.3307037670679173</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4993787180531948</v>
+        <v>0.4976997668719043</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3719853750645982</v>
+        <v>0.371729138976188</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1701060782249778</v>
+        <v>0.1699653785162186</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3097246528033425</v>
+        <v>0.308829831381446</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4709133772192315</v>
+        <v>0.4702053123516222</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3399294847434691</v>
+        <v>0.3414111323612595</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1507397549754208</v>
+        <v>0.1511520453984099</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3105733563719331</v>
+        <v>0.3109746163926014</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4676849506691744</v>
+        <v>0.4677087783717907</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3291399977822435</v>
+        <v>0.3293118607584328</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1493853827370454</v>
+        <v>0.1492651660049314</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3649442094051478</v>
+        <v>0.3633753177112801</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.533814635628162</v>
+        <v>0.5326402588825213</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4062547208730412</v>
+        <v>0.4058403982858568</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1919520004146317</v>
+        <v>0.1923710664013696</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3318814249215903</v>
+        <v>0.3316661543860032</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4958276019335627</v>
+        <v>0.4964478211612584</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3634675727084382</v>
+        <v>0.3634295088584438</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1670324212582504</v>
+        <v>0.1682680813232862</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>128420</v>
+        <v>128870</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>502155</v>
+        <v>500810</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>376158</v>
+        <v>374825</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>81519</v>
+        <v>80518</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>296681</v>
+        <v>297129</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>595741</v>
+        <v>592362</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>524271</v>
+        <v>518647</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>138373</v>
+        <v>140872</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>438646</v>
+        <v>440214</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1114962</v>
+        <v>1113541</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>924541</v>
+        <v>916919</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>229870</v>
+        <v>233754</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>171379</v>
+        <v>170094</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>572756</v>
+        <v>568463</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>441237</v>
+        <v>439933</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>122143</v>
+        <v>121033</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>354197</v>
+        <v>357079</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>665819</v>
+        <v>662797</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>592579</v>
+        <v>593374</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>178149</v>
+        <v>179312</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>511057</v>
+        <v>514330</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1209225</v>
+        <v>1209700</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1020177</v>
+        <v>1014708</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>286697</v>
+        <v>289751</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>317221</v>
+        <v>315577</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>431885</v>
+        <v>427082</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>250780</v>
+        <v>252085</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>153545</v>
+        <v>154799</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>355563</v>
+        <v>356104</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>538688</v>
+        <v>537820</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>357275</v>
+        <v>356289</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>235862</v>
+        <v>236935</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>690328</v>
+        <v>689856</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>983718</v>
+        <v>983412</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>628190</v>
+        <v>623683</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>405722</v>
+        <v>403773</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>379084</v>
+        <v>375685</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>495181</v>
+        <v>492463</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>307504</v>
+        <v>310608</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>205529</v>
+        <v>204638</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>419423</v>
+        <v>416543</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>607307</v>
+        <v>605616</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>421298</v>
+        <v>419490</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>284209</v>
+        <v>285746</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>778793</v>
+        <v>776192</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1078245</v>
+        <v>1079177</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>712190</v>
+        <v>710583</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>479049</v>
+        <v>473125</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>312547</v>
+        <v>313416</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>302249</v>
+        <v>300840</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>219101</v>
+        <v>220158</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>108706</v>
+        <v>106373</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>310815</v>
+        <v>309276</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>396206</v>
+        <v>394474</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>231621</v>
+        <v>231304</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>155896</v>
+        <v>156500</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>638635</v>
+        <v>638587</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>709227</v>
+        <v>710963</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>464034</v>
+        <v>464465</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>277165</v>
+        <v>279695</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>374342</v>
+        <v>374332</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>361242</v>
+        <v>364614</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>272961</v>
+        <v>271207</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>152567</v>
+        <v>154502</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>371485</v>
+        <v>367954</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>454032</v>
+        <v>453341</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>285189</v>
+        <v>286140</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>200654</v>
+        <v>200245</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>728182</v>
+        <v>723885</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>795578</v>
+        <v>794882</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>539539</v>
+        <v>542463</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>341876</v>
+        <v>343375</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>90186</v>
+        <v>89178</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>181192</v>
+        <v>179752</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>107097</v>
+        <v>106967</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>51691</v>
+        <v>50817</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>85445</v>
+        <v>84550</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>184960</v>
+        <v>183518</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>146018</v>
+        <v>146273</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>57467</v>
+        <v>58401</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>187165</v>
+        <v>184126</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>377094</v>
+        <v>375232</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>262698</v>
+        <v>264561</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>113890</v>
+        <v>117256</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>125560</v>
+        <v>126310</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>229277</v>
+        <v>227993</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>146401</v>
+        <v>146662</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>84723</v>
+        <v>84044</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>117945</v>
+        <v>118593</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>227805</v>
+        <v>230045</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>187385</v>
+        <v>188302</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>85283</v>
+        <v>87132</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>233269</v>
+        <v>234107</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>441610</v>
+        <v>442092</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>321337</v>
+        <v>323544</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>161153</v>
+        <v>163361</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>893328</v>
+        <v>898582</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1472994</v>
+        <v>1477421</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1004774</v>
+        <v>1001840</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>429564</v>
+        <v>431573</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1097812</v>
+        <v>1096273</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1769160</v>
+        <v>1763212</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1311915</v>
+        <v>1311011</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>628953</v>
+        <v>628433</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2027395</v>
+        <v>2021538</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3273727</v>
+        <v>3268805</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2343499</v>
+        <v>2353714</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1082116</v>
+        <v>1085075</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1003409</v>
+        <v>1004706</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1594406</v>
+        <v>1594487</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1108307</v>
+        <v>1108886</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>520053</v>
+        <v>519634</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1209779</v>
+        <v>1204578</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1891157</v>
+        <v>1886996</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1432776</v>
+        <v>1431315</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>709726</v>
+        <v>711276</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2172429</v>
+        <v>2171020</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>3446928</v>
+        <v>3451239</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2505773</v>
+        <v>2505510</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1199076</v>
+        <v>1207946</v>
       </c>
     </row>
     <row r="24">
